--- a/Documen Aturusaha/daftar menu.xlsx
+++ b/Documen Aturusaha/daftar menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="217">
   <si>
     <t>menu</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Organisasi</t>
   </si>
   <si>
-    <t>Departemen-Divisi-Jabatan-Struktur Perusahaan</t>
-  </si>
-  <si>
     <t>Job Desc</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Diskon</t>
-  </si>
-  <si>
     <t>Syarat &amp; Ketentuan</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>KPI</t>
   </si>
   <si>
-    <t>AKU-satuan KPI-Jenis KPI-KPI-KP Karyawan</t>
-  </si>
-  <si>
     <t>Absensi &amp; Potongan</t>
   </si>
   <si>
@@ -432,24 +423,9 @@
     <t>strategi perusahaan</t>
   </si>
   <si>
-    <t>Laporan administrasi</t>
-  </si>
-  <si>
-    <t>surat</t>
-  </si>
-  <si>
     <t>masuk-keluar</t>
   </si>
   <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>inventaris peralatan</t>
-  </si>
-  <si>
-    <t>laporan Proyek</t>
-  </si>
-  <si>
     <t>Daftar Proyek</t>
   </si>
   <si>
@@ -480,99 +456,48 @@
     <t>per tahun, seluruh bulan, per supervisor, per karyawan</t>
   </si>
   <si>
-    <t>Laporan  inventori</t>
-  </si>
-  <si>
     <t>Daftar Barang &amp; harga jual</t>
   </si>
   <si>
     <t>all barang, per brg, per metode harga jual</t>
   </si>
   <si>
-    <t>Item brg  masuk Item brg  keluar</t>
-  </si>
-  <si>
-    <t>stok barang</t>
-  </si>
-  <si>
     <t>stok akhir current date</t>
   </si>
   <si>
-    <t>stok opname</t>
-  </si>
-  <si>
     <t>per tgl, per jenis brg(jadi-mentah-dlm proses)</t>
   </si>
   <si>
-    <t>Barang kedaluarsa</t>
-  </si>
-  <si>
     <t>curent date</t>
   </si>
   <si>
     <t>Laporan Pembelian</t>
   </si>
   <si>
-    <t xml:space="preserve">pesanan pembelian </t>
-  </si>
-  <si>
     <t>per tgl, per supplier</t>
   </si>
   <si>
-    <t xml:space="preserve">pembelian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hutang </t>
-  </si>
-  <si>
-    <t>pengecekkan barang</t>
-  </si>
-  <si>
     <t>per tgl beli, per supplier</t>
   </si>
   <si>
-    <t>return pembelian</t>
-  </si>
-  <si>
-    <t>pembayaran hutang</t>
-  </si>
-  <si>
     <t>per tgl, per po atau order, per supplier</t>
   </si>
   <si>
     <t>Laporan Penjualan</t>
   </si>
   <si>
-    <t>Pesanan penjualan</t>
-  </si>
-  <si>
     <t>per tgl, per klien</t>
   </si>
   <si>
-    <t>penjualan</t>
-  </si>
-  <si>
     <t>per tgl per klien, per kasir</t>
   </si>
   <si>
-    <t xml:space="preserve">return penjualan </t>
-  </si>
-  <si>
     <t>per tgl per klien</t>
   </si>
   <si>
-    <t xml:space="preserve">piutang </t>
-  </si>
-  <si>
-    <t>pembayaran piutang</t>
-  </si>
-  <si>
     <t>per tgl, per klien, per SO, per Sales</t>
   </si>
   <si>
-    <t>komisi sales</t>
-  </si>
-  <si>
     <t>per per tgl, per sales</t>
   </si>
   <si>
@@ -585,12 +510,6 @@
     <t xml:space="preserve">satu halaman </t>
   </si>
   <si>
-    <t>order jasa</t>
-  </si>
-  <si>
-    <t>pengerjaan jasa</t>
-  </si>
-  <si>
     <t>per tgl order, per karyawan</t>
   </si>
   <si>
@@ -603,33 +522,6 @@
     <t>Pembayaran jasa</t>
   </si>
   <si>
-    <t>klien/customer</t>
-  </si>
-  <si>
-    <t>rencana marketing</t>
-  </si>
-  <si>
-    <t>segementing</t>
-  </si>
-  <si>
-    <t>targeting</t>
-  </si>
-  <si>
-    <t>positioning</t>
-  </si>
-  <si>
-    <t>convert</t>
-  </si>
-  <si>
-    <t>closing</t>
-  </si>
-  <si>
-    <t>Deligting</t>
-  </si>
-  <si>
-    <t>Evalusi Marketing</t>
-  </si>
-  <si>
     <t>Laporan Keuangan</t>
   </si>
   <si>
@@ -642,10 +534,139 @@
     <t>Laporan Penggajian</t>
   </si>
   <si>
-    <t>Laporan Dividen Saham</t>
-  </si>
-  <si>
-    <t>Laporan Bagi Hasil</t>
+    <t>per karyawan</t>
+  </si>
+  <si>
+    <t>Loker</t>
+  </si>
+  <si>
+    <t>per tgl loker, jumlah pelamar, jumlah lolos</t>
+  </si>
+  <si>
+    <t>per thn, per karyawan</t>
+  </si>
+  <si>
+    <t>Kompetensi Karyawan</t>
+  </si>
+  <si>
+    <t>Daftar SOP</t>
+  </si>
+  <si>
+    <t>Skala Gaji</t>
+  </si>
+  <si>
+    <t>Tunjangan gaji</t>
+  </si>
+  <si>
+    <t>Laporan Investasi</t>
+  </si>
+  <si>
+    <t>Kepemilikan saham</t>
+  </si>
+  <si>
+    <t>Dividen Saham</t>
+  </si>
+  <si>
+    <t>Syirkah</t>
+  </si>
+  <si>
+    <t>Laporan Administrasi</t>
+  </si>
+  <si>
+    <t>Laporan Proyek</t>
+  </si>
+  <si>
+    <t>Rekap produksi per karyawan</t>
+  </si>
+  <si>
+    <t>Laporan  Inventory</t>
+  </si>
+  <si>
+    <t>Jurnal-Neraca-L/R-Modal-Arus Kas</t>
+  </si>
+  <si>
+    <t>Rencana Anggaran Belanja</t>
+  </si>
+  <si>
+    <t>Struktur perusahaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar Proyek </t>
+  </si>
+  <si>
+    <t>Departemen-Divisi-Jabatan</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Inventaris Peralatan</t>
+  </si>
+  <si>
+    <t>Item Barang  Masuk Keluar</t>
+  </si>
+  <si>
+    <t>Barang kedaluwarsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesanan Pembelian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembelian </t>
+  </si>
+  <si>
+    <t>Stok barang</t>
+  </si>
+  <si>
+    <t>Stok Opname</t>
+  </si>
+  <si>
+    <t>Hutang</t>
+  </si>
+  <si>
+    <t>Pengecekkan Barang</t>
+  </si>
+  <si>
+    <t>Return Pembelian</t>
+  </si>
+  <si>
+    <t>Pembayaran Hutang</t>
+  </si>
+  <si>
+    <t>Pesanan Penjualan</t>
+  </si>
+  <si>
+    <t>Penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Penjualan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piutang </t>
+  </si>
+  <si>
+    <t>Pembayaran Piutang</t>
+  </si>
+  <si>
+    <t>Komisi Sales</t>
+  </si>
+  <si>
+    <t>Order Jasa</t>
+  </si>
+  <si>
+    <t>Pengerjaan Jasa</t>
+  </si>
+  <si>
+    <t>ACCDE (Attract-Convert-Closing-Delighting-Evaluating)</t>
+  </si>
+  <si>
+    <t>Klien/Customer</t>
+  </si>
+  <si>
+    <t>Rencana Marketing</t>
   </si>
 </sst>
 </file>
@@ -707,7 +728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +786,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,17 +905,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,62 +915,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -942,6 +1013,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,6 +1027,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1238,15 +1320,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="74.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -1266,1176 +1348,1250 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="63"/>
+      <c r="B3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="63"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="63"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="63"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="63"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="63"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="53"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="63"/>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="63"/>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="63"/>
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="53"/>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="63"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="63"/>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="63"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="53"/>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="53"/>
+      <c r="B21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="11" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="63"/>
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="63"/>
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="63"/>
+      <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="53"/>
+      <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="63"/>
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="63"/>
+      <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="53"/>
+      <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="14" t="s">
+      <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="64"/>
+      <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="64"/>
+      <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="13" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="64"/>
+      <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="64"/>
+      <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="64"/>
+      <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="64"/>
+      <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="16"/>
-      <c r="B37" t="s">
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="64"/>
+      <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13" t="s">
+      <c r="C39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="64"/>
+      <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="64"/>
+      <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="63"/>
+      <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6" t="s">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="63"/>
+      <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6" t="s">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="63"/>
+      <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="6" t="s">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="63"/>
+      <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="6" t="s">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="6" t="s">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="63"/>
+      <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="6" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="63"/>
+      <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="63"/>
+      <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="63"/>
+      <c r="B53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="63"/>
+      <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="6" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="63"/>
+      <c r="B55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="63"/>
+      <c r="B56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="63"/>
+      <c r="B57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="63"/>
+      <c r="B58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="63"/>
+      <c r="B59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="63"/>
+      <c r="B62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="63"/>
+      <c r="B63" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="63"/>
+      <c r="B64" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="63"/>
+      <c r="B65" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="63"/>
+      <c r="B66" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="53"/>
+      <c r="B67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="63"/>
+      <c r="B69" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="63"/>
+      <c r="B70" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="63"/>
+      <c r="B71" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="63"/>
+      <c r="B72" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="63"/>
+      <c r="B73" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="63"/>
+      <c r="B74" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="63"/>
+      <c r="B77" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="63"/>
+      <c r="B78" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="5" customFormat="1">
+      <c r="A79" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="5" customFormat="1">
+      <c r="A80" s="48"/>
+      <c r="B80" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="5" customFormat="1">
+      <c r="A81" s="48"/>
+      <c r="B81" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="5" customFormat="1">
+      <c r="A82" s="48"/>
+      <c r="B82" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="5" customFormat="1">
+      <c r="A83" s="48"/>
+      <c r="B83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="5" customFormat="1">
+      <c r="A84" s="49"/>
+      <c r="B84" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="5" customFormat="1">
+      <c r="A85" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1">
+      <c r="A86" s="45"/>
+      <c r="B86" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="5" customFormat="1">
+      <c r="A87" s="45"/>
+      <c r="B87" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="5" customFormat="1">
+      <c r="A88" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="5" customFormat="1">
+      <c r="A89" s="59"/>
+      <c r="B89" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="5" customFormat="1">
+      <c r="A90" s="59"/>
+      <c r="B90" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="5" customFormat="1">
+      <c r="A91" s="59"/>
+      <c r="B91" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="5" customFormat="1">
+      <c r="A92" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="5" customFormat="1">
+      <c r="A93" s="50"/>
+      <c r="B93" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="5" customFormat="1">
+      <c r="A94" s="51"/>
+      <c r="B94" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="18"/>
+    </row>
+    <row r="95" spans="1:3" s="5" customFormat="1">
+      <c r="A95" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="5" customFormat="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="5" customFormat="1">
+      <c r="A97" s="48"/>
+      <c r="B97" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="5" customFormat="1">
+      <c r="A98" s="48"/>
+      <c r="B98" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="5" customFormat="1">
+      <c r="A99" s="48"/>
+      <c r="B99" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="5" customFormat="1">
+      <c r="A100" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="5" customFormat="1">
+      <c r="A101" s="61"/>
+      <c r="B101" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="5" customFormat="1">
+      <c r="A102" s="61"/>
+      <c r="B102" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="5" customFormat="1">
+      <c r="A103" s="61"/>
+      <c r="B103" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="5" customFormat="1">
+      <c r="A104" s="61"/>
+      <c r="B104" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="5" customFormat="1">
+      <c r="A105" s="62"/>
+      <c r="B105" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="5" customFormat="1">
+      <c r="A106" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="5" customFormat="1">
+      <c r="A107" s="48"/>
+      <c r="B107" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="5" customFormat="1">
+      <c r="A108" s="48"/>
+      <c r="B108" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="5" customFormat="1">
+      <c r="A109" s="48"/>
+      <c r="B109" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" s="23" customFormat="1">
+      <c r="A110" s="48"/>
+      <c r="B110" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="23" customFormat="1">
+      <c r="A111" s="49"/>
+      <c r="B111" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="55"/>
+      <c r="B113" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="55"/>
+      <c r="B114" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="55"/>
+      <c r="B115" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="56"/>
+      <c r="B116" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="26"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="58"/>
+      <c r="B118" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="58"/>
+      <c r="B119" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="58"/>
+      <c r="B120" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="58"/>
+      <c r="B121" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" ht="30">
+      <c r="A122" s="58"/>
+      <c r="B122" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="53"/>
+      <c r="B124" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="42"/>
+      <c r="B126" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="42"/>
+      <c r="B127" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="42"/>
+      <c r="B128" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="C128" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="42"/>
+      <c r="B129" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="42"/>
+      <c r="B130" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6" t="s">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="43"/>
+      <c r="B131" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="18"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="20" t="s">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="45"/>
+      <c r="B133" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="46"/>
+      <c r="B134" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="20" t="s">
+      <c r="C135" s="5"/>
+      <c r="D135" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="40"/>
+      <c r="B136" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="40"/>
+      <c r="B137" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="40"/>
+      <c r="B138" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="40"/>
+      <c r="B139" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1">
-      <c r="A80" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="6" customFormat="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="6" customFormat="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="6" customFormat="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="6" customFormat="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="6" customFormat="1">
-      <c r="A85" s="26"/>
-      <c r="B85" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="6" customFormat="1">
-      <c r="A86" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="6" customFormat="1">
-      <c r="A87" s="28"/>
-      <c r="B87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="6" customFormat="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="6" customFormat="1">
-      <c r="A89" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="6" customFormat="1">
-      <c r="A90" s="29"/>
-      <c r="B90" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="6" customFormat="1">
-      <c r="A91" s="29"/>
-      <c r="B91" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="6" customFormat="1">
-      <c r="A92" s="29"/>
-      <c r="B92" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="6" customFormat="1">
-      <c r="A93" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="6" customFormat="1">
-      <c r="A94" s="32"/>
-      <c r="B94" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="6" customFormat="1">
-      <c r="A95" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="6" customFormat="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="6" customFormat="1">
-      <c r="A100" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1">
-      <c r="A101" s="47"/>
-      <c r="B101" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1">
-      <c r="A102" s="47"/>
-      <c r="B102" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1">
-      <c r="A103" s="47"/>
-      <c r="B103" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1">
-      <c r="A104" s="47"/>
-      <c r="B104" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1">
-      <c r="A105" s="48"/>
-      <c r="B105" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1">
-      <c r="A106" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="6" customFormat="1">
-      <c r="A107" s="25"/>
-      <c r="B107" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="6" customFormat="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1">
-      <c r="A109" s="26"/>
-      <c r="B109" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="13"/>
-    </row>
-    <row r="110" spans="1:4" s="37" customFormat="1">
-      <c r="A110" s="36"/>
-      <c r="B110" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="37" customFormat="1">
-      <c r="A111" s="36"/>
-      <c r="B111" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="41"/>
-      <c r="B113" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="41"/>
-      <c r="B114" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="41"/>
-      <c r="B115" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C115" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="43"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" s="6"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C125" s="6"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="9"/>
-      <c r="B126" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126" s="6"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="11"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A94"/>
+  <mergeCells count="25">
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
     <mergeCell ref="A95:A99"/>
     <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A125:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documen Aturusaha/daftar menu.xlsx
+++ b/Documen Aturusaha/daftar menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="217">
   <si>
     <t>menu</t>
   </si>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,6 +946,45 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -958,36 +997,12 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1003,23 +1018,14 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:A122"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1348,7 +1354,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1359,28 +1365,28 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="63"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="63"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="63"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1417,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="53"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1428,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1433,7 +1439,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="63"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1448,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="63"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1457,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="63"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1467,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="53"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1473,7 +1479,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1487,7 +1493,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="63"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1496,7 +1502,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="63"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1506,7 +1512,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="63"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +1522,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1534,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1542,7 +1548,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="53"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>191</v>
       </c>
@@ -1568,7 +1574,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1582,7 +1588,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="63"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1593,7 +1599,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="63"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
@@ -1604,7 +1610,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="63"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1622,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="53"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1634,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -1639,7 +1645,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="63"/>
+      <c r="A29" s="41"/>
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1648,14 +1654,14 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="63"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="53"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1670,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1673,21 +1679,21 @@
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="64"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="64"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1702,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="64"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1705,7 +1711,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="64"/>
+      <c r="A37" s="43"/>
       <c r="B37" t="s">
         <v>62</v>
       </c>
@@ -1714,7 +1720,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="64"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
@@ -1723,7 +1729,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="64"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -1732,21 +1738,21 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="64"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="64"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1755,49 +1761,49 @@
       <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="63"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="63"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="63"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="63"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="63"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="53"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1808,7 +1814,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="63"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
@@ -1817,7 +1823,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="63"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1832,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="63"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
@@ -1835,7 +1841,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="63"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="5" t="s">
         <v>85</v>
       </c>
@@ -1844,7 +1850,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="63"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
@@ -1853,7 +1859,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="63"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
@@ -1862,7 +1868,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="63"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="5" t="s">
         <v>92</v>
       </c>
@@ -1871,7 +1877,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="63"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="5" t="s">
         <v>94</v>
       </c>
@@ -1880,7 +1886,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="63"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="5" t="s">
         <v>96</v>
       </c>
@@ -1889,21 +1895,21 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="63"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="53"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="40" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1912,49 +1918,49 @@
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="63"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="63"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="63"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="63"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="63"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="53"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="40" t="s">
         <v>108</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -1963,14 +1969,14 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="63"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="63"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="15" t="s">
         <v>111</v>
       </c>
@@ -1979,35 +1985,35 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="63"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="63"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="63"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="63"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="53"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="15" t="s">
         <v>117</v>
       </c>
@@ -2016,7 +2022,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="40" t="s">
         <v>119</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -2027,14 +2033,14 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="63"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="63"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="15" t="s">
         <v>123</v>
       </c>
@@ -2090,7 +2096,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1">
-      <c r="A84" s="49"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="17" t="s">
         <v>134</v>
       </c>
@@ -2125,7 +2131,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="5" customFormat="1">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="46" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -2136,25 +2142,25 @@
       </c>
     </row>
     <row r="89" spans="1:3" s="5" customFormat="1">
-      <c r="A89" s="59"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="5" customFormat="1">
-      <c r="A90" s="59"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="5" customFormat="1">
-      <c r="A91" s="59"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="5" customFormat="1">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="19" t="s">
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" s="5" customFormat="1">
-      <c r="A93" s="50"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="19" t="s">
         <v>144</v>
       </c>
@@ -2174,7 +2180,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" s="5" customFormat="1">
-      <c r="A94" s="51"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="19" t="s">
         <v>186</v>
       </c>
@@ -2225,7 +2231,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1">
-      <c r="A100" s="60" t="s">
+      <c r="A100" s="49" t="s">
         <v>151</v>
       </c>
       <c r="B100" s="21" t="s">
@@ -2236,7 +2242,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="21" t="s">
         <v>199</v>
       </c>
@@ -2245,7 +2251,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="21" t="s">
         <v>203</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="21" t="s">
         <v>204</v>
       </c>
@@ -2263,7 +2269,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="37" t="s">
         <v>202</v>
       </c>
@@ -2272,7 +2278,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="22" t="s">
         <v>205</v>
       </c>
@@ -2329,7 +2335,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" s="23" customFormat="1">
-      <c r="A111" s="49"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="20" t="s">
         <v>211</v>
       </c>
@@ -2338,7 +2344,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="59" t="s">
         <v>161</v>
       </c>
       <c r="B112" s="24" t="s">
@@ -2349,7 +2355,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="55"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="25" t="s">
         <v>212</v>
       </c>
@@ -2358,7 +2364,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="55"/>
+      <c r="A114" s="60"/>
       <c r="B114" s="25" t="s">
         <v>213</v>
       </c>
@@ -2367,7 +2373,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="55"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="25" t="s">
         <v>165</v>
       </c>
@@ -2376,14 +2382,14 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="56"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C116" s="26"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="57" t="s">
+      <c r="A117" s="62" t="s">
         <v>170</v>
       </c>
       <c r="B117" s="29" t="s">
@@ -2392,42 +2398,42 @@
       <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="58"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="29" t="s">
         <v>216</v>
       </c>
       <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="58"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="58"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="5"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="58"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="58"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="39" t="s">
         <v>214</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="40" t="s">
         <v>168</v>
       </c>
       <c r="B123" s="38" t="s">
@@ -2436,14 +2442,14 @@
       <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="53"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="54" t="s">
         <v>169</v>
       </c>
       <c r="B125" s="32" t="s">
@@ -2454,7 +2460,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="42"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="32" t="s">
         <v>173</v>
       </c>
@@ -2463,7 +2469,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="42"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="32" t="s">
         <v>85</v>
       </c>
@@ -2472,7 +2478,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="42"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="32" t="s">
         <v>89</v>
       </c>
@@ -2481,28 +2487,28 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="42"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="32" t="s">
         <v>176</v>
       </c>
       <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="42"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="43"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="33" t="s">
         <v>177</v>
       </c>
       <c r="C131" s="5"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="44" t="s">
+      <c r="A132" s="64" t="s">
         <v>171</v>
       </c>
       <c r="B132" s="34" t="s">
@@ -2511,62 +2517,87 @@
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="45"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="46"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="34" t="s">
         <v>179</v>
       </c>
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="66"/>
+      <c r="B135" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B136" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="27" t="s">
+      <c r="C136" s="5"/>
+      <c r="D136" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="40"/>
-      <c r="B136" s="35" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="53"/>
+      <c r="B137" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="40"/>
-      <c r="B137" s="35" t="s">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="53"/>
+      <c r="B138" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="40"/>
-      <c r="B138" s="35" t="s">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="53"/>
+      <c r="B139" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="40"/>
-      <c r="B139" s="35" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="53"/>
+      <c r="B140" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="8"/>
+    <row r="144" spans="1:4">
+      <c r="A144" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A125:A131"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A32:A41"/>
@@ -2574,24 +2605,6 @@
     <mergeCell ref="A49:A60"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A125:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documen Aturusaha/daftar menu.xlsx
+++ b/Documen Aturusaha/daftar menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="222">
   <si>
     <t>menu</t>
   </si>
@@ -447,21 +447,9 @@
     <t xml:space="preserve">Produksi barang </t>
   </si>
   <si>
-    <t>per tgl, per brg, per karyawan, per supervisor</t>
-  </si>
-  <si>
-    <t>Rekap produksi per tahun</t>
-  </si>
-  <si>
-    <t>per tahun, seluruh bulan, per supervisor, per karyawan</t>
-  </si>
-  <si>
     <t>Daftar Barang &amp; harga jual</t>
   </si>
   <si>
-    <t>all barang, per brg, per metode harga jual</t>
-  </si>
-  <si>
     <t>stok akhir current date</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
     <t>Laporan Proyek</t>
   </si>
   <si>
-    <t>Rekap produksi per karyawan</t>
-  </si>
-  <si>
     <t>Laporan  Inventory</t>
   </si>
   <si>
@@ -667,6 +652,47 @@
   </si>
   <si>
     <t>Rencana Marketing</t>
+  </si>
+  <si>
+    <t>per karyawan di pisah saja, karna beda tampilan kolom</t>
+  </si>
+  <si>
+    <t>produksi per karyawan</t>
+  </si>
+  <si>
+    <t>Rekap produksi per tahun per karyawan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">per tgl, per brg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> per supervisor</t>
+    </r>
+  </si>
+  <si>
+    <t>per tahun, seluruh bulan,  per karyawan</t>
+  </si>
+  <si>
+    <t>Rekap produksi per tahun persupervisor</t>
+  </si>
+  <si>
+    <t>per tahun, seluruh bulan,  per supervisor</t>
+  </si>
+  <si>
+    <t>all barang,  per metode harga jual</t>
+  </si>
+  <si>
+    <t>hilangkan dl, blm bs mendetek sisa brg untuk brg yg telah kedaluarsa</t>
+  </si>
+  <si>
+    <t>Stok Barang Gudang</t>
   </si>
 </sst>
 </file>
@@ -891,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,6 +972,11 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1326,18 +1357,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
@@ -1354,39 +1385,39 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="41"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="41"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="41"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1426,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1437,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1448,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1459,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1439,7 +1470,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1479,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1457,7 +1488,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1467,7 +1498,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1510,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1493,7 +1524,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1533,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1543,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +1553,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1565,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1548,9 +1579,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>33</v>
@@ -1574,7 +1605,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1588,7 +1619,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="41"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1599,7 +1630,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="41"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
@@ -1610,7 +1641,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1653,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +1665,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -1645,7 +1676,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1654,14 +1685,14 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="42"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
@@ -1670,7 +1701,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1679,21 +1710,21 @@
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="43"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -1702,7 +1733,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="43"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1711,7 +1742,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="43"/>
+      <c r="A37" s="46"/>
       <c r="B37" t="s">
         <v>62</v>
       </c>
@@ -1720,7 +1751,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="43"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
@@ -1729,7 +1760,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="43"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -1738,21 +1769,21 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="43"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="43"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1761,49 +1792,49 @@
       <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="41"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="41"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="41"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="42"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1814,7 +1845,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="41"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
@@ -1823,7 +1854,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -1832,7 +1863,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="41"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
@@ -1841,7 +1872,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="41"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="5" t="s">
         <v>85</v>
       </c>
@@ -1850,7 +1881,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="41"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
@@ -1859,7 +1890,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="41"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
@@ -1868,7 +1899,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="41"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="5" t="s">
         <v>92</v>
       </c>
@@ -1877,7 +1908,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="41"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="5" t="s">
         <v>94</v>
       </c>
@@ -1886,7 +1917,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="41"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="5" t="s">
         <v>96</v>
       </c>
@@ -1895,21 +1926,21 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="41"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="42"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="43" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1918,49 +1949,49 @@
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="41"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="41"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="41"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="41"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="41"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="42"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="43" t="s">
         <v>108</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -1969,14 +2000,14 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="41"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="41"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="15" t="s">
         <v>111</v>
       </c>
@@ -1985,35 +2016,35 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="41"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="41"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="41"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="41"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="42"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="15" t="s">
         <v>117</v>
       </c>
@@ -2022,7 +2053,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -2033,14 +2064,14 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="41"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="41"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="15" t="s">
         <v>123</v>
       </c>
@@ -2049,7 +2080,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" s="5" customFormat="1">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="50" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="17" t="s">
@@ -2060,7 +2091,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" s="5" customFormat="1">
-      <c r="A80" s="48"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="17" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2099,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="5" customFormat="1">
-      <c r="A81" s="48"/>
+    <row r="81" spans="1:4" s="5" customFormat="1">
+      <c r="A81" s="51"/>
       <c r="B81" s="17" t="s">
         <v>129</v>
       </c>
@@ -2077,8 +2108,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="5" customFormat="1">
-      <c r="A82" s="48"/>
+    <row r="82" spans="1:4" s="5" customFormat="1">
+      <c r="A82" s="51"/>
       <c r="B82" s="17" t="s">
         <v>6</v>
       </c>
@@ -2086,8 +2117,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="5" customFormat="1">
-      <c r="A83" s="48"/>
+    <row r="83" spans="1:4" s="5" customFormat="1">
+      <c r="A83" s="51"/>
       <c r="B83" s="17" t="s">
         <v>132</v>
       </c>
@@ -2095,8 +2126,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="5" customFormat="1">
-      <c r="A84" s="52"/>
+    <row r="84" spans="1:4" s="5" customFormat="1">
+      <c r="A84" s="55"/>
       <c r="B84" s="17" t="s">
         <v>134</v>
       </c>
@@ -2104,35 +2135,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="5" customFormat="1">
-      <c r="A85" s="44" t="s">
-        <v>184</v>
+    <row r="85" spans="1:4" s="5" customFormat="1">
+      <c r="A85" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1">
-      <c r="A86" s="45"/>
+    <row r="86" spans="1:4" s="5" customFormat="1">
+      <c r="A86" s="48"/>
       <c r="B86" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="5" customFormat="1">
-      <c r="A87" s="45"/>
+    <row r="87" spans="1:4" s="5" customFormat="1">
+      <c r="A87" s="48"/>
       <c r="B87" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="5" customFormat="1">
-      <c r="A88" s="46" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="5" customFormat="1">
+      <c r="A88" s="49" t="s">
+        <v>181</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>136</v>
@@ -2141,457 +2172,478 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="5" customFormat="1">
-      <c r="A89" s="46"/>
+    <row r="89" spans="1:4" s="5" customFormat="1">
+      <c r="A89" s="49"/>
       <c r="B89" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="5" customFormat="1">
-      <c r="A90" s="46"/>
+    <row r="90" spans="1:4" s="5" customFormat="1">
+      <c r="A90" s="49"/>
       <c r="B90" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="5" customFormat="1">
-      <c r="A91" s="46"/>
+    <row r="91" spans="1:4" s="5" customFormat="1">
+      <c r="A91" s="49"/>
       <c r="B91" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="5" customFormat="1">
-      <c r="A92" s="57" t="s">
+    <row r="92" spans="1:4" s="5" customFormat="1">
+      <c r="A92" s="60" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C92" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1">
+      <c r="A93" s="60"/>
+      <c r="B93" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1">
+      <c r="A94" s="61"/>
+      <c r="B94" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="5" customFormat="1">
+      <c r="A95" s="40"/>
+      <c r="B95" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="5" customFormat="1">
+      <c r="A96" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" s="5" customFormat="1">
-      <c r="A93" s="57"/>
-      <c r="B93" s="19" t="s">
+      <c r="C96" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="5" customFormat="1">
+      <c r="A97" s="51"/>
+      <c r="B97" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="5" customFormat="1">
+      <c r="A98" s="51"/>
+      <c r="B98" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="18" t="s">
+    </row>
+    <row r="99" spans="1:4" s="5" customFormat="1">
+      <c r="A99" s="51"/>
+      <c r="B99" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="18"/>
+    </row>
+    <row r="100" spans="1:4" s="5" customFormat="1">
+      <c r="A100" s="51"/>
+      <c r="B100" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="5" customFormat="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="18"/>
-    </row>
-    <row r="95" spans="1:3" s="5" customFormat="1">
-      <c r="A95" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="20" t="s">
+    <row r="101" spans="1:4" s="5" customFormat="1">
+      <c r="A101" s="51"/>
+      <c r="B101" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="D101" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="5" customFormat="1">
+      <c r="A102" s="52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="5" customFormat="1">
-      <c r="A96" s="48"/>
-      <c r="B96" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="5" customFormat="1">
-      <c r="A97" s="48"/>
-      <c r="B97" s="20" t="s">
+      <c r="B102" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="5" customFormat="1">
+      <c r="A103" s="53"/>
+      <c r="B103" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="5" customFormat="1">
+      <c r="A104" s="53"/>
+      <c r="B104" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="5" customFormat="1">
+      <c r="A105" s="53"/>
+      <c r="B105" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="5" customFormat="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="5" customFormat="1">
+      <c r="A107" s="54"/>
+      <c r="B107" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="5" customFormat="1">
-      <c r="A98" s="48"/>
-      <c r="B98" s="20" t="s">
+      <c r="C107" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="5" customFormat="1">
+      <c r="A108" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="5" customFormat="1">
-      <c r="A99" s="48"/>
-      <c r="B99" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="5" customFormat="1">
-      <c r="A100" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="5" customFormat="1">
-      <c r="A101" s="50"/>
-      <c r="B101" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="18" t="s">
+    <row r="109" spans="1:4" s="5" customFormat="1">
+      <c r="A109" s="51"/>
+      <c r="B109" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="5" customFormat="1">
+      <c r="A110" s="51"/>
+      <c r="B110" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="5" customFormat="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4" s="23" customFormat="1">
+      <c r="A112" s="51"/>
+      <c r="B112" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="23" customFormat="1">
+      <c r="A113" s="55"/>
+      <c r="B113" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="63"/>
+      <c r="B115" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="5" customFormat="1">
-      <c r="A102" s="50"/>
-      <c r="B102" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="5" customFormat="1">
-      <c r="A103" s="50"/>
-      <c r="B103" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="5" customFormat="1">
-      <c r="A104" s="50"/>
-      <c r="B104" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="5" customFormat="1">
-      <c r="A105" s="51"/>
-      <c r="B105" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="5" customFormat="1">
-      <c r="A106" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="5" customFormat="1">
-      <c r="A107" s="48"/>
-      <c r="B107" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="5" customFormat="1">
-      <c r="A108" s="48"/>
-      <c r="B108" s="17" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="63"/>
+      <c r="B116" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="5" customFormat="1">
-      <c r="A109" s="48"/>
-      <c r="B109" s="17" t="s">
+      <c r="C116" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="63"/>
+      <c r="B117" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="64"/>
+      <c r="B118" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="26"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="66"/>
+      <c r="B120" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="66"/>
+      <c r="B121" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="66"/>
+      <c r="B122" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="66"/>
+      <c r="B123" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" ht="30">
+      <c r="A124" s="66"/>
+      <c r="B124" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="10"/>
-    </row>
-    <row r="110" spans="1:4" s="23" customFormat="1">
-      <c r="A110" s="48"/>
-      <c r="B110" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="23" customFormat="1">
-      <c r="A111" s="52"/>
-      <c r="B111" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="60"/>
-      <c r="B113" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="60"/>
-      <c r="B114" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C114" s="25" t="s">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="43" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="60"/>
-      <c r="B115" s="25" t="s">
+      <c r="B125" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="45"/>
+      <c r="B126" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="61"/>
-      <c r="B116" s="25" t="s">
+      <c r="B127" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="58"/>
+      <c r="B128" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="58"/>
+      <c r="B129" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="58"/>
+      <c r="B130" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="58"/>
+      <c r="B131" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="58"/>
+      <c r="B132" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="59"/>
+      <c r="B133" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C116" s="26"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="63"/>
-      <c r="B118" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="63"/>
-      <c r="B119" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="63"/>
-      <c r="B120" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="63"/>
-      <c r="B121" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="63"/>
-      <c r="B122" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B123" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="55"/>
-      <c r="B126" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="B134" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="68"/>
+      <c r="B135" s="34" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="55"/>
-      <c r="B127" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="68"/>
+      <c r="B136" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="55"/>
-      <c r="B128" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="55"/>
-      <c r="B129" s="32" t="s">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="69"/>
+      <c r="B137" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="55"/>
-      <c r="B130" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="56"/>
-      <c r="B131" s="33" t="s">
+      <c r="B138" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="56"/>
+      <c r="B139" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="65"/>
-      <c r="B133" s="34" t="s">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="56"/>
+      <c r="B140" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="65"/>
-      <c r="B134" s="34" t="s">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="56"/>
+      <c r="B141" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="66"/>
-      <c r="B135" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="53"/>
-      <c r="B137" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="53"/>
-      <c r="B138" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="53"/>
-      <c r="B139" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="53"/>
-      <c r="B140" s="35" t="s">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="56"/>
+      <c r="B142" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="8"/>
+    <row r="146" spans="1:1">
+      <c r="A146" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A125:A131"/>
-    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="A108:A113"/>
     <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A134:A137"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="A102:A107"/>
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A14"/>

--- a/Documen Aturusaha/daftar menu.xlsx
+++ b/Documen Aturusaha/daftar menu.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -618,9 +619,6 @@
     <t>Return Pembelian</t>
   </si>
   <si>
-    <t>Pembayaran Hutang</t>
-  </si>
-  <si>
     <t>Pesanan Penjualan</t>
   </si>
   <si>
@@ -631,9 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">Piutang </t>
-  </si>
-  <si>
-    <t>Pembayaran Piutang</t>
   </si>
   <si>
     <t>Komisi Sales</t>
@@ -693,6 +688,12 @@
   </si>
   <si>
     <t>Stok Barang Gudang</t>
+  </si>
+  <si>
+    <t>Pembayaran penjualan</t>
+  </si>
+  <si>
+    <t>Pembayaran pembelian</t>
   </si>
 </sst>
 </file>
@@ -977,86 +978,86 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,7 +1361,7 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1385,7 +1386,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1396,28 +1397,28 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="44"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1427,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="44"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1438,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="44"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1449,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1460,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1470,7 +1471,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="44"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1479,7 +1480,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="44"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +1489,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="44"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1499,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="45"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1511,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1524,7 +1525,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="44"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="44"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1543,7 +1544,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="44"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1553,7 +1554,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1566,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1579,7 +1580,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="9" t="s">
         <v>186</v>
       </c>
@@ -1605,7 +1606,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1619,7 +1620,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="44"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1630,7 +1631,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="44"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
@@ -1641,7 +1642,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="44"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
@@ -1653,7 +1654,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="45"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1666,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -1676,7 +1677,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="44"/>
+      <c r="A29" s="68"/>
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1685,14 +1686,14 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="44"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="45"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
@@ -1701,7 +1702,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="69" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1710,21 +1711,21 @@
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -1733,7 +1734,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1742,7 +1743,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="69"/>
       <c r="B37" t="s">
         <v>62</v>
       </c>
@@ -1751,7 +1752,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
@@ -1760,7 +1761,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -1769,21 +1770,21 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1792,49 +1793,49 @@
       <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="44"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="44"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="44"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="45"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1845,7 +1846,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="44"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1855,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="44"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
@@ -1863,7 +1864,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="44"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1873,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="44"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="5" t="s">
         <v>85</v>
       </c>
@@ -1881,7 +1882,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="44"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
@@ -1890,7 +1891,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="44"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
@@ -1899,7 +1900,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="44"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="5" t="s">
         <v>92</v>
       </c>
@@ -1908,7 +1909,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="44"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="5" t="s">
         <v>94</v>
       </c>
@@ -1917,7 +1918,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="44"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="5" t="s">
         <v>96</v>
       </c>
@@ -1926,21 +1927,21 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="44"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="45"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1949,49 +1950,49 @@
       <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="44"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="44"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="44"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="44"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="44"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -2000,14 +2001,14 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="44"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="44"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="15" t="s">
         <v>111</v>
       </c>
@@ -2016,35 +2017,35 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="44"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="44"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="44"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="44"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="45"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="15" t="s">
         <v>117</v>
       </c>
@@ -2053,7 +2054,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -2064,14 +2065,14 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="44"/>
+      <c r="A77" s="68"/>
       <c r="B77" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="44"/>
+      <c r="A78" s="68"/>
       <c r="B78" s="15" t="s">
         <v>123</v>
       </c>
@@ -2080,7 +2081,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" s="5" customFormat="1">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="47" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="17" t="s">
@@ -2091,7 +2092,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" s="5" customFormat="1">
-      <c r="A80" s="51"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="17" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2101,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="5" customFormat="1">
-      <c r="A81" s="51"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="17" t="s">
         <v>129</v>
       </c>
@@ -2109,7 +2110,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="5" customFormat="1">
-      <c r="A82" s="51"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="17" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2119,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="5" customFormat="1">
-      <c r="A83" s="51"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="17" t="s">
         <v>132</v>
       </c>
@@ -2127,7 +2128,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" s="5" customFormat="1">
-      <c r="A84" s="55"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="17" t="s">
         <v>134</v>
       </c>
@@ -2136,7 +2137,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" s="5" customFormat="1">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="62" t="s">
         <v>180</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -2147,7 +2148,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="5" customFormat="1">
-      <c r="A86" s="48"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="5" t="s">
         <v>189</v>
       </c>
@@ -2156,13 +2157,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1">
-      <c r="A87" s="48"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="5" customFormat="1">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="64" t="s">
         <v>181</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -2173,80 +2174,80 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="5" customFormat="1">
-      <c r="A89" s="49"/>
+      <c r="A89" s="64"/>
       <c r="B89" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="5" customFormat="1">
-      <c r="A90" s="49"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="5" customFormat="1">
-      <c r="A91" s="49"/>
+      <c r="A91" s="64"/>
       <c r="B91" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="5" customFormat="1">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="50" t="s">
         <v>141</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1">
+      <c r="A93" s="50"/>
+      <c r="B93" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1">
+      <c r="A94" s="51"/>
+      <c r="B94" s="19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="5" customFormat="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="5" customFormat="1">
-      <c r="A94" s="61"/>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="5" customFormat="1">
       <c r="A95" s="40"/>
       <c r="B95" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="5" customFormat="1">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1">
-      <c r="A97" s="51"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1">
-      <c r="A98" s="51"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="20" t="s">
         <v>195</v>
       </c>
@@ -2255,14 +2256,14 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1">
-      <c r="A99" s="51"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C99" s="18"/>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1">
-      <c r="A100" s="51"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="20" t="s">
         <v>196</v>
       </c>
@@ -2271,7 +2272,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1">
-      <c r="A101" s="51"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="41" t="s">
         <v>192</v>
       </c>
@@ -2279,11 +2280,11 @@
         <v>146</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="65" t="s">
         <v>147</v>
       </c>
       <c r="B102" s="21" t="s">
@@ -2294,7 +2295,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1">
-      <c r="A103" s="53"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="21" t="s">
         <v>194</v>
       </c>
@@ -2303,7 +2304,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1">
-      <c r="A104" s="53"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="21" t="s">
         <v>198</v>
       </c>
@@ -2312,7 +2313,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1">
-      <c r="A105" s="53"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="21" t="s">
         <v>199</v>
       </c>
@@ -2321,7 +2322,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1">
-      <c r="A106" s="53"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="37" t="s">
         <v>197</v>
       </c>
@@ -2330,47 +2331,47 @@
       </c>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1">
-      <c r="A107" s="54"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="5" customFormat="1">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1">
-      <c r="A109" s="51"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1">
-      <c r="A110" s="51"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="5" customFormat="1">
-      <c r="A111" s="51"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>154</v>
@@ -2378,25 +2379,25 @@
       <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" s="23" customFormat="1">
-      <c r="A112" s="51"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="20" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="23" customFormat="1">
-      <c r="A113" s="55"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="62" t="s">
+      <c r="A114" s="54" t="s">
         <v>157</v>
       </c>
       <c r="B114" s="24" t="s">
@@ -2407,25 +2408,25 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="63"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="63"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C116" s="25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="63"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="25" t="s">
         <v>161</v>
       </c>
@@ -2434,58 +2435,58 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="64"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C118" s="26"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="57" t="s">
         <v>166</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="66"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C120" s="5"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="66"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="66"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="66"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3" ht="30">
-      <c r="A124" s="66"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="52" t="s">
         <v>164</v>
       </c>
       <c r="B125" s="38" t="s">
@@ -2494,14 +2495,14 @@
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="45"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="57" t="s">
+      <c r="A127" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B127" s="32" t="s">
@@ -2512,7 +2513,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="58"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="32" t="s">
         <v>169</v>
       </c>
@@ -2521,7 +2522,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="58"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="32" t="s">
         <v>85</v>
       </c>
@@ -2530,7 +2531,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="58"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="32" t="s">
         <v>89</v>
       </c>
@@ -2539,28 +2540,28 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="58"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="32" t="s">
         <v>172</v>
       </c>
       <c r="C131" s="5"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="58"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="59"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="59" t="s">
         <v>167</v>
       </c>
       <c r="B134" s="34" t="s">
@@ -2569,28 +2570,28 @@
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="68"/>
+      <c r="A135" s="60"/>
       <c r="B135" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="68"/>
+      <c r="A136" s="60"/>
       <c r="B136" s="34" t="s">
         <v>175</v>
       </c>
       <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="69"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="34" t="s">
         <v>106</v>
       </c>
       <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="56" t="s">
+      <c r="A138" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B138" s="35" t="s">
@@ -2602,27 +2603,27 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="56"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="35" t="s">
         <v>177</v>
       </c>
       <c r="C139" s="5"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="56"/>
+      <c r="A140" s="43"/>
       <c r="B140" s="35" t="s">
         <v>178</v>
       </c>
       <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="56"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="56"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="35" t="s">
         <v>123</v>
       </c>
@@ -2632,6 +2633,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A79:A84"/>
     <mergeCell ref="A138:A142"/>
     <mergeCell ref="A127:A133"/>
     <mergeCell ref="A108:A113"/>
@@ -2640,23 +2658,6 @@
     <mergeCell ref="A114:A118"/>
     <mergeCell ref="A119:A124"/>
     <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
